--- a/build/templates/Inventory-Template.xlsx
+++ b/build/templates/Inventory-Template.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpujari\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachivantara-my.sharepoint.com/personal/abhishek_thakur_hitachids_com/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DACD448-FA3B-4F8D-AA8F-9BFD4B0ABA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{E3BA5505-8D34-4A3A-A157-985E34DCE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE25F79-3650-49AA-A94F-42F4C3C03C9E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{537C960B-E105-448C-A490-5455683E10D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{96234EA3-1667-4791-A176-7E4D25041C01}"/>
   </bookViews>
   <sheets>
-    <sheet name="bulk_upload" sheetId="1" r:id="rId1"/>
+    <sheet name="About" sheetId="3" r:id="rId1"/>
+    <sheet name="TO-FILL" sheetId="1" r:id="rId2"/>
+    <sheet name="Value-HIDE" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+  <si>
+    <t>Asset_Type</t>
+  </si>
   <si>
     <t>Asset_Name</t>
   </si>
@@ -47,19 +52,118 @@
     <t>Asset_Serial_Number</t>
   </si>
   <si>
+    <t>Asset_Location</t>
+  </si>
+  <si>
+    <t>Asset_Status</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Asset_Type</t>
-  </si>
-  <si>
-    <t>Asset_type_unique_id</t>
-  </si>
-  <si>
-    <t>Asset_Location</t>
-  </si>
-  <si>
-    <t>Asset_Status</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Vehicle Monitor</t>
+  </si>
+  <si>
+    <t>Walkthrough Monitor</t>
+  </si>
+  <si>
+    <t>Pedestrian Monitor</t>
+  </si>
+  <si>
+    <t>Area Gamma Monitor</t>
+  </si>
+  <si>
+    <t>AP4C-F/V</t>
+  </si>
+  <si>
+    <t>IBAC</t>
+  </si>
+  <si>
+    <t>MAB</t>
+  </si>
+  <si>
+    <t>Weather Monitor</t>
+  </si>
+  <si>
+    <t>FCAD</t>
+  </si>
+  <si>
+    <t>Air Activity Monitor</t>
+  </si>
+  <si>
+    <t>FTIR</t>
+  </si>
+  <si>
+    <t>AP4C</t>
+  </si>
+  <si>
+    <t>Defender Omega</t>
+  </si>
+  <si>
+    <t>PCAD</t>
+  </si>
+  <si>
+    <t>Portable GCMS</t>
+  </si>
+  <si>
+    <t>Radiation Contamination Monitor</t>
+  </si>
+  <si>
+    <t>Low Range Gamma Suvey Meter</t>
+  </si>
+  <si>
+    <t>Long Distance Gamma Suvey Meter</t>
+  </si>
+  <si>
+    <t>Oxygen Monitors</t>
+  </si>
+  <si>
+    <t>Air Sampling Unit</t>
+  </si>
+  <si>
+    <t>Battelle - REBS</t>
+  </si>
+  <si>
+    <t>FILMARRAY Identification System</t>
+  </si>
+  <si>
+    <t>ANCAM 6100</t>
+  </si>
+  <si>
+    <t>ATR - FTIR</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>In-Active</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Storeroom</t>
+  </si>
+  <si>
+    <t>Lower Ground</t>
+  </si>
+  <si>
+    <t>Upper Ground</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Asset_Type*</t>
+  </si>
+  <si>
+    <t>Asset_Status*</t>
+  </si>
+  <si>
+    <t>Asset_Location*</t>
   </si>
 </sst>
 </file>
@@ -76,25 +180,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -130,9 +242,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -150,6 +273,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1595D560-9199-B90D-E0BB-2022067BA441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="184150"/>
+          <a:ext cx="7258050" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>USER INFORMATION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> is the Bulk Upload Template to be filled by User.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The user is to fill the fields in the "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TO-FILL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>" Sheet highlighted in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Yellow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The information of the fields</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> are as below:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1. Asset Type*:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> This is the type of asset to be inserted. User to fill from drop-down provided.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2. Asset Name:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> This is the name of the individual asset if it exists. Can be left blank, but unqiue ID will be generated on the basis of the "Unique Asset Type Code" and iteration number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3. Asset Manufacturer:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> This is the manufacturer name of the device that is inserted. Can be left blank.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4. Asset Location*:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Location of where asset is located. User to fill from drop-down provided. If asset information is not available, then the default location is Storeroom.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5. Asset Status*:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Status of Asset. Either Active, In-Active or Removed. User to fill from drop-down provided. Default option is In-Active.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6. Comments:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Additional information or remarks the user can insert. Can be left blank.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please insert new items above the yellow line.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Marked in star "*" are mandatory fields.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,53 +904,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D3A17-C53B-46F1-AFC2-BAEEDCF46306}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1119EB-82BA-4CB4-BFF3-4A5EF8F8718A}">
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="3" tint="0.749992370372631"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7822ED3F-A59C-42BB-A95E-9DD6AF3380D7}">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1212DBE2-9D6C-4993-98BE-0CF093450531}">
+          <x14:formula1>
+            <xm:f>'Value-HIDE'!$B$5:$B$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F343A738-F97A-4F88-99BE-CFB797AECA73}">
+          <x14:formula1>
+            <xm:f>'Value-HIDE'!$C$5:$C$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47A5ACFF-6116-4FED-B9DE-312FB7066730}">
+          <x14:formula1>
+            <xm:f>'Value-HIDE'!$D$5:$D$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1146C957-5768-4318-AA28-C0E3A9CDE1A5}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B3:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>